--- a/wxdgaming.game.basic/src/main/cfg/buff.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/buff.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>buff</t>
   </si>
@@ -68,6 +68,9 @@
     <t>all</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>paramString3</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -182,64 +188,28 @@
     <t>特殊配置3</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":100}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":101}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":102}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":103}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":104}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":105}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":106}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":107}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":108}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":109}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":110}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":111}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":112}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":113}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":114}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":115}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":116}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":117}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":118}</t>
-  </si>
-  <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":119}</t>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>每秒加10点血</t>
+  </si>
+  <si>
+    <t>{"HP":10,"MP":10}</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>每秒加10%的血</t>
+  </si>
+  <si>
+    <t>{"HP":1000,"MP":1000}</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>{"HP":-40,"MP":-40}</t>
   </si>
 </sst>
 </file>
@@ -876,15 +846,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -945,6 +922,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1205,257 +1189,264 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="4" width="24.25" style="1" customWidth="1"/>
-    <col min="5" max="14" width="26.75" style="1" customWidth="1"/>
-    <col min="15" max="17" width="71.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="2" max="5" width="24.25" style="2" customWidth="1"/>
+    <col min="6" max="15" width="26.75" style="2" customWidth="1"/>
+    <col min="16" max="18" width="71.25" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>22</v>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="Q5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1463,615 +1454,108 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="K6">
+        <v>30000</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
       <c r="N6"/>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
+      <c r="O6"/>
       <c r="P6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
+    <row r="7" spans="1:18">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
+      <c r="K7">
+        <v>30000</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
       <c r="N7"/>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
+      <c r="O7"/>
       <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="R7"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
+    <row r="8" spans="1:18">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8">
+        <v>30000</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
       <c r="N8"/>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
+      <c r="O8"/>
       <c r="P8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wxdgaming.game.basic/src/main/cfg/buff.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/buff.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>buff</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>{"HP":-40,"MP":-40}</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>{"MAXHP":1000,"MAXMP":1000,"体力":100,"攻击":100,"防御":100}</t>
   </si>
 </sst>
 </file>
@@ -1189,17 +1195,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="5" width="24.25" style="2" customWidth="1"/>
-    <col min="6" max="15" width="26.75" style="2" customWidth="1"/>
+    <col min="6" max="8" width="26.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.75" style="1" customWidth="1"/>
+    <col min="10" max="15" width="26.75" style="2" customWidth="1"/>
     <col min="16" max="18" width="71.25" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="3"/>
   </cols>
@@ -1215,7 +1223,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1251,7 +1259,7 @@
       <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1305,7 +1313,7 @@
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1359,7 +1367,7 @@
       <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1413,7 +1421,7 @@
       <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1463,7 +1471,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" s="6"/>
       <c r="J6"/>
       <c r="K6">
         <v>30000</v>
@@ -1501,7 +1509,7 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" s="6"/>
       <c r="J7"/>
       <c r="K7">
         <v>30000</v>
@@ -1538,7 +1546,7 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" s="6"/>
       <c r="J8"/>
       <c r="K8">
         <v>30000</v>
@@ -1556,6 +1564,29 @@
       </c>
       <c r="Q8"/>
       <c r="R8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>30000</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wxdgaming.game.basic/src/main/cfg/buff.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_buff" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>buff</t>
   </si>
@@ -74,7 +74,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>group</t>
+    <t>buffGroup</t>
+  </si>
+  <si>
+    <t>buffId</t>
   </si>
   <si>
     <t>lv</t>
@@ -89,13 +92,19 @@
     <t>addExecutor</t>
   </si>
   <si>
+    <t>addStatusList</t>
+  </si>
+  <si>
     <t>clearType</t>
   </si>
   <si>
     <t>checkGroup</t>
   </si>
   <si>
-    <t>clearGroup</t>
+    <t>clearBuffIdList</t>
+  </si>
+  <si>
+    <t>clearGroupList</t>
   </si>
   <si>
     <t>duration</t>
@@ -140,6 +149,9 @@
     <t>主键id 唯一id</t>
   </si>
   <si>
+    <t>buff分组</t>
+  </si>
+  <si>
     <t>buff的id</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
   </si>
   <si>
     <t>是否在添加buff立即执行一次</t>
+  </si>
+  <si>
+    <t>获得buff添加的状态</t>
   </si>
   <si>
     <t>buff的清理机制，死亡删除，切换地图删除，下线删除</t>
@@ -852,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,6 +883,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1195,37 +1216,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="5" width="24.25" style="2" customWidth="1"/>
-    <col min="6" max="8" width="26.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.75" style="1" customWidth="1"/>
-    <col min="10" max="15" width="26.75" style="2" customWidth="1"/>
-    <col min="16" max="18" width="71.25" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="2" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="6" width="24.25" style="2" customWidth="1"/>
+    <col min="7" max="10" width="26.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.75" style="1" customWidth="1"/>
+    <col min="12" max="18" width="26.75" style="2" customWidth="1"/>
+    <col min="19" max="21" width="71.25" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1233,23 +1255,26 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1259,13 +1284,13 @@
       <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -1289,21 +1314,30 @@
       <c r="R2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="S2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1313,13 +1347,13 @@
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -1343,249 +1377,294 @@
       <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21">
       <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="R4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:21">
       <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:21">
       <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6"/>
+        <v>47</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="6"/>
+      <c r="I6"/>
       <c r="J6"/>
-      <c r="K6">
+      <c r="K6" s="6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6">
         <v>30000</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="s">
-        <v>44</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:21">
       <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7"/>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="6"/>
+      <c r="I7"/>
       <c r="J7"/>
-      <c r="K7">
+      <c r="K7" s="6"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7">
         <v>30000</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>1000</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:21">
       <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="6"/>
+      <c r="I8"/>
       <c r="J8"/>
-      <c r="K8">
+      <c r="K8" s="6"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8">
         <v>30000</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>1000</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" t="s">
-        <v>49</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>30000</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>1000</v>
       </c>
-      <c r="P9" t="s">
-        <v>51</v>
+      <c r="S9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
